--- a/reconciliation/utils/output.xlsx
+++ b/reconciliation/utils/output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
   <si>
     <t>Акт сверки № 1</t>
   </si>
@@ -758,8 +758,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ac7f301e-dd01-4b90-b0ed-b5edb732af4b}">
-  <dimension ref="A1:QZ30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c8e697e4-09f4-4749-bb5f-575bc88bdc42}">
+  <dimension ref="A1:QZ31"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -8829,13 +8829,13 @@
     </row>
     <row r="18" spans="1:468" ht="14.25" customHeight="1">
       <c r="A18" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
@@ -8892,13 +8892,13 @@
       <c r="BB18" s="29"/>
       <c r="BC18" s="29"/>
       <c r="BD18" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE18" s="26"/>
       <c r="BF18" s="26"/>
       <c r="BG18" s="26"/>
       <c r="BH18" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BI18" s="24"/>
       <c r="BJ18" s="24"/>
@@ -9294,6 +9294,9 @@
       <c r="QF18" s="30">
         <v>400</v>
       </c>
+      <c r="QG18" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="QH18" s="30">
         <v>300</v>
       </c>
@@ -9306,8 +9309,9 @@
       <c r="QP18" s="30">
         <v>400</v>
       </c>
-      <c r="QS18" s="22"/>
-      <c r="QT18" s="22"/>
+      <c r="QS18" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="QU18" s="22"/>
       <c r="QV18" s="22"/>
       <c r="QW18" s="22"/>
@@ -9317,13 +9321,13 @@
     </row>
     <row r="19" spans="1:468" ht="14.25" customHeight="1">
       <c r="A19" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
@@ -9353,7 +9357,9 @@
       <c r="AE19" s="24"/>
       <c r="AF19" s="24"/>
       <c r="AG19" s="24"/>
-      <c r="AH19" s="29"/>
+      <c r="AH19" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="AI19" s="29"/>
       <c r="AJ19" s="29"/>
       <c r="AK19" s="29"/>
@@ -9365,7 +9371,7 @@
       <c r="AQ19" s="29"/>
       <c r="AR19" s="29"/>
       <c r="AS19" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AT19" s="29"/>
       <c r="AU19" s="29"/>
@@ -9378,13 +9384,13 @@
       <c r="BB19" s="29"/>
       <c r="BC19" s="29"/>
       <c r="BD19" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE19" s="26"/>
       <c r="BF19" s="26"/>
       <c r="BG19" s="26"/>
       <c r="BH19" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BI19" s="24"/>
       <c r="BJ19" s="24"/>
@@ -9414,7 +9420,7 @@
       <c r="CH19" s="24"/>
       <c r="CI19" s="24"/>
       <c r="CJ19" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CK19" s="29"/>
       <c r="CL19" s="29"/>
@@ -9426,7 +9432,9 @@
       <c r="CR19" s="29"/>
       <c r="CS19" s="29"/>
       <c r="CT19" s="29"/>
-      <c r="CU19" s="29"/>
+      <c r="CU19" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="CV19" s="29"/>
       <c r="CW19" s="29"/>
       <c r="CX19" s="29"/>
@@ -9772,13 +9780,15 @@
       <c r="QA19" s="22"/>
       <c r="QB19" s="22"/>
       <c r="QC19" s="22"/>
-      <c r="QD19" s="3"/>
-      <c r="QE19" s="31"/>
+      <c r="QD19" s="30">
+        <v>300</v>
+      </c>
       <c r="QF19" s="30">
-        <v>200</v>
+        <v>400</v>
       </c>
-      <c r="QH19" s="22"/>
-      <c r="QI19" s="22"/>
+      <c r="QH19" s="30">
+        <v>300</v>
+      </c>
       <c r="QJ19" s="22"/>
       <c r="QK19" s="22"/>
       <c r="QL19" s="22"/>
@@ -9786,7 +9796,7 @@
       <c r="QN19" s="22"/>
       <c r="QO19" s="22"/>
       <c r="QP19" s="30">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="QS19" s="22"/>
       <c r="QT19" s="22"/>
@@ -9798,115 +9808,127 @@
       <c r="QZ19" s="22"/>
     </row>
     <row r="20" spans="1:468" ht="14.25" customHeight="1">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="22"/>
-      <c r="AJ20" s="22"/>
-      <c r="AK20" s="22"/>
-      <c r="AL20" s="22"/>
-      <c r="AM20" s="22"/>
-      <c r="AN20" s="22"/>
-      <c r="AO20" s="22"/>
-      <c r="AP20" s="22"/>
-      <c r="AQ20" s="22"/>
-      <c r="AR20" s="22"/>
-      <c r="AS20" s="22"/>
-      <c r="AT20" s="22"/>
-      <c r="AU20" s="22"/>
-      <c r="AV20" s="22"/>
-      <c r="AW20" s="22"/>
-      <c r="AX20" s="22"/>
-      <c r="AY20" s="22"/>
-      <c r="AZ20" s="22"/>
-      <c r="BA20" s="22"/>
-      <c r="BB20" s="22"/>
-      <c r="BC20" s="22"/>
-      <c r="BD20" s="22"/>
-      <c r="BE20" s="22"/>
-      <c r="BF20" s="22"/>
-      <c r="BG20" s="22"/>
-      <c r="BH20" s="22"/>
-      <c r="BI20" s="22"/>
-      <c r="BJ20" s="22"/>
-      <c r="BK20" s="22"/>
-      <c r="BL20" s="22"/>
-      <c r="BM20" s="22"/>
-      <c r="BN20" s="22"/>
-      <c r="BO20" s="22"/>
-      <c r="BP20" s="22"/>
-      <c r="BQ20" s="22"/>
-      <c r="BR20" s="22"/>
-      <c r="BS20" s="22"/>
-      <c r="BT20" s="22"/>
-      <c r="BU20" s="22"/>
-      <c r="BV20" s="22"/>
-      <c r="BW20" s="22"/>
-      <c r="BX20" s="22"/>
-      <c r="BY20" s="22"/>
-      <c r="BZ20" s="22"/>
-      <c r="CA20" s="22"/>
-      <c r="CB20" s="22"/>
-      <c r="CC20" s="22"/>
-      <c r="CD20" s="22"/>
-      <c r="CE20" s="22"/>
-      <c r="CF20" s="22"/>
-      <c r="CG20" s="22"/>
-      <c r="CH20" s="22"/>
-      <c r="CI20" s="22"/>
-      <c r="CJ20" s="22"/>
-      <c r="CK20" s="22"/>
-      <c r="CL20" s="22"/>
-      <c r="CM20" s="22"/>
-      <c r="CN20" s="22"/>
-      <c r="CO20" s="22"/>
-      <c r="CP20" s="22"/>
-      <c r="CQ20" s="22"/>
-      <c r="CR20" s="22"/>
-      <c r="CS20" s="22"/>
-      <c r="CT20" s="22"/>
-      <c r="CU20" s="22"/>
-      <c r="CV20" s="22"/>
-      <c r="CW20" s="22"/>
-      <c r="CX20" s="22"/>
-      <c r="CY20" s="22"/>
-      <c r="CZ20" s="22"/>
-      <c r="DA20" s="22"/>
-      <c r="DB20" s="22"/>
-      <c r="DC20" s="22"/>
-      <c r="DD20" s="22"/>
-      <c r="DE20" s="22"/>
-      <c r="DF20" s="22"/>
+      <c r="A20" s="27">
+        <v>4</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="24"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="29"/>
+      <c r="BB20" s="29"/>
+      <c r="BC20" s="29"/>
+      <c r="BD20" s="27">
+        <v>4</v>
+      </c>
+      <c r="BE20" s="26"/>
+      <c r="BF20" s="26"/>
+      <c r="BG20" s="26"/>
+      <c r="BH20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI20" s="24"/>
+      <c r="BJ20" s="24"/>
+      <c r="BK20" s="24"/>
+      <c r="BL20" s="24"/>
+      <c r="BM20" s="24"/>
+      <c r="BN20" s="24"/>
+      <c r="BO20" s="24"/>
+      <c r="BP20" s="24"/>
+      <c r="BQ20" s="24"/>
+      <c r="BR20" s="24"/>
+      <c r="BS20" s="24"/>
+      <c r="BT20" s="24"/>
+      <c r="BU20" s="24"/>
+      <c r="BV20" s="24"/>
+      <c r="BW20" s="24"/>
+      <c r="BX20" s="24"/>
+      <c r="BY20" s="24"/>
+      <c r="BZ20" s="24"/>
+      <c r="CA20" s="24"/>
+      <c r="CB20" s="24"/>
+      <c r="CC20" s="24"/>
+      <c r="CD20" s="24"/>
+      <c r="CE20" s="24"/>
+      <c r="CF20" s="24"/>
+      <c r="CG20" s="24"/>
+      <c r="CH20" s="24"/>
+      <c r="CI20" s="24"/>
+      <c r="CJ20" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="CK20" s="29"/>
+      <c r="CL20" s="29"/>
+      <c r="CM20" s="29"/>
+      <c r="CN20" s="29"/>
+      <c r="CO20" s="29"/>
+      <c r="CP20" s="29"/>
+      <c r="CQ20" s="29"/>
+      <c r="CR20" s="29"/>
+      <c r="CS20" s="29"/>
+      <c r="CT20" s="29"/>
+      <c r="CU20" s="29"/>
+      <c r="CV20" s="29"/>
+      <c r="CW20" s="29"/>
+      <c r="CX20" s="29"/>
+      <c r="CY20" s="29"/>
+      <c r="CZ20" s="29"/>
+      <c r="DA20" s="29"/>
+      <c r="DB20" s="29"/>
+      <c r="DC20" s="29"/>
+      <c r="DD20" s="29"/>
+      <c r="DE20" s="29"/>
       <c r="DG20" s="22"/>
       <c r="DH20" s="22"/>
       <c r="DI20" s="22"/>
@@ -10242,10 +10264,11 @@
       <c r="QA20" s="22"/>
       <c r="QB20" s="22"/>
       <c r="QC20" s="22"/>
-      <c r="QD20" s="22"/>
-      <c r="QE20" s="22"/>
-      <c r="QF20" s="22"/>
-      <c r="QG20" s="22"/>
+      <c r="QD20" s="3"/>
+      <c r="QE20" s="31"/>
+      <c r="QF20" s="30">
+        <v>200</v>
+      </c>
       <c r="QH20" s="22"/>
       <c r="QI20" s="22"/>
       <c r="QJ20" s="22"/>
@@ -10254,9 +10277,9 @@
       <c r="QM20" s="22"/>
       <c r="QN20" s="22"/>
       <c r="QO20" s="22"/>
-      <c r="QP20" s="22"/>
-      <c r="QQ20" s="22"/>
-      <c r="QR20" s="22"/>
+      <c r="QP20" s="30">
+        <v>200</v>
+      </c>
       <c r="QS20" s="22"/>
       <c r="QT20" s="22"/>
       <c r="QU20" s="22"/>
@@ -10267,118 +10290,115 @@
       <c r="QZ20" s="22"/>
     </row>
     <row r="21" spans="1:468" ht="14.25" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="AX21" s="4"/>
-      <c r="AY21" s="4"/>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="4"/>
-      <c r="BB21" s="4"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="22"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="22"/>
+      <c r="AT21" s="22"/>
+      <c r="AU21" s="22"/>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="22"/>
+      <c r="AX21" s="22"/>
+      <c r="AY21" s="22"/>
+      <c r="AZ21" s="22"/>
+      <c r="BA21" s="22"/>
+      <c r="BB21" s="22"/>
+      <c r="BC21" s="22"/>
       <c r="BD21" s="22"/>
-      <c r="BE21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BF21" s="4"/>
-      <c r="BG21" s="4"/>
-      <c r="BH21" s="4"/>
-      <c r="BI21" s="4"/>
-      <c r="BJ21" s="4"/>
-      <c r="BK21" s="4"/>
-      <c r="BL21" s="4"/>
-      <c r="BM21" s="4"/>
-      <c r="BN21" s="4"/>
-      <c r="BO21" s="4"/>
-      <c r="BP21" s="4"/>
-      <c r="BQ21" s="4"/>
-      <c r="BR21" s="4"/>
-      <c r="BS21" s="4"/>
-      <c r="BT21" s="4"/>
-      <c r="BU21" s="4"/>
-      <c r="BV21" s="4"/>
-      <c r="BW21" s="4"/>
-      <c r="BX21" s="4"/>
-      <c r="BY21" s="4"/>
-      <c r="BZ21" s="4"/>
-      <c r="CA21" s="4"/>
-      <c r="CB21" s="4"/>
-      <c r="CC21" s="4"/>
-      <c r="CD21" s="4"/>
-      <c r="CE21" s="4"/>
-      <c r="CF21" s="4"/>
-      <c r="CG21" s="4"/>
-      <c r="CH21" s="4"/>
-      <c r="CI21" s="4"/>
-      <c r="CJ21" s="4"/>
-      <c r="CK21" s="4"/>
-      <c r="CL21" s="4"/>
-      <c r="CM21" s="4"/>
-      <c r="CN21" s="4"/>
-      <c r="CO21" s="4"/>
-      <c r="CP21" s="4"/>
-      <c r="CQ21" s="4"/>
-      <c r="CR21" s="4"/>
-      <c r="CS21" s="4"/>
-      <c r="CT21" s="4"/>
-      <c r="CU21" s="4"/>
-      <c r="CV21" s="4"/>
-      <c r="CW21" s="4"/>
-      <c r="CX21" s="4"/>
-      <c r="CY21" s="4"/>
-      <c r="CZ21" s="4"/>
-      <c r="DA21" s="4"/>
-      <c r="DB21" s="4"/>
-      <c r="DC21" s="4"/>
-      <c r="DD21" s="4"/>
-      <c r="DE21" s="4"/>
+      <c r="BE21" s="22"/>
+      <c r="BF21" s="22"/>
+      <c r="BG21" s="22"/>
+      <c r="BH21" s="22"/>
+      <c r="BI21" s="22"/>
+      <c r="BJ21" s="22"/>
+      <c r="BK21" s="22"/>
+      <c r="BL21" s="22"/>
+      <c r="BM21" s="22"/>
+      <c r="BN21" s="22"/>
+      <c r="BO21" s="22"/>
+      <c r="BP21" s="22"/>
+      <c r="BQ21" s="22"/>
+      <c r="BR21" s="22"/>
+      <c r="BS21" s="22"/>
+      <c r="BT21" s="22"/>
+      <c r="BU21" s="22"/>
+      <c r="BV21" s="22"/>
+      <c r="BW21" s="22"/>
+      <c r="BX21" s="22"/>
+      <c r="BY21" s="22"/>
+      <c r="BZ21" s="22"/>
+      <c r="CA21" s="22"/>
+      <c r="CB21" s="22"/>
+      <c r="CC21" s="22"/>
+      <c r="CD21" s="22"/>
+      <c r="CE21" s="22"/>
+      <c r="CF21" s="22"/>
+      <c r="CG21" s="22"/>
+      <c r="CH21" s="22"/>
+      <c r="CI21" s="22"/>
+      <c r="CJ21" s="22"/>
+      <c r="CK21" s="22"/>
+      <c r="CL21" s="22"/>
+      <c r="CM21" s="22"/>
+      <c r="CN21" s="22"/>
+      <c r="CO21" s="22"/>
+      <c r="CP21" s="22"/>
+      <c r="CQ21" s="22"/>
+      <c r="CR21" s="22"/>
+      <c r="CS21" s="22"/>
+      <c r="CT21" s="22"/>
+      <c r="CU21" s="22"/>
+      <c r="CV21" s="22"/>
+      <c r="CW21" s="22"/>
+      <c r="CX21" s="22"/>
+      <c r="CY21" s="22"/>
+      <c r="CZ21" s="22"/>
+      <c r="DA21" s="22"/>
+      <c r="DB21" s="22"/>
+      <c r="DC21" s="22"/>
+      <c r="DD21" s="22"/>
+      <c r="DE21" s="22"/>
+      <c r="DF21" s="22"/>
       <c r="DG21" s="22"/>
       <c r="DH21" s="22"/>
       <c r="DI21" s="22"/>
@@ -10720,16 +10740,15 @@
       <c r="QG21" s="22"/>
       <c r="QH21" s="22"/>
       <c r="QI21" s="22"/>
-      <c r="QJ21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="QK21" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="QJ21" s="22"/>
+      <c r="QK21" s="22"/>
+      <c r="QL21" s="22"/>
       <c r="QM21" s="22"/>
       <c r="QN21" s="22"/>
       <c r="QO21" s="22"/>
       <c r="QP21" s="22"/>
+      <c r="QQ21" s="22"/>
+      <c r="QR21" s="22"/>
       <c r="QS21" s="22"/>
       <c r="QT21" s="22"/>
       <c r="QU21" s="22"/>
@@ -10740,118 +10759,118 @@
       <c r="QZ21" s="22"/>
     </row>
     <row r="22" spans="1:468" ht="14.25" customHeight="1">
-      <c r="A22" s="15" t="s">
-        <v>25</v>
+      <c r="A22" s="4" t="s">
+        <v>23</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15"/>
-      <c r="AM22" s="15"/>
-      <c r="AN22" s="15"/>
-      <c r="AO22" s="15"/>
-      <c r="AP22" s="15"/>
-      <c r="AQ22" s="15"/>
-      <c r="AR22" s="15"/>
-      <c r="AS22" s="15"/>
-      <c r="AT22" s="15"/>
-      <c r="AU22" s="15"/>
-      <c r="AV22" s="15"/>
-      <c r="AW22" s="15"/>
-      <c r="AX22" s="15"/>
-      <c r="AY22" s="15"/>
-      <c r="AZ22" s="15"/>
-      <c r="BA22" s="15"/>
-      <c r="BB22" s="15"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
       <c r="BD22" s="22"/>
-      <c r="BE22" s="15" t="s">
-        <v>25</v>
+      <c r="BE22" s="4" t="s">
+        <v>24</v>
       </c>
-      <c r="BF22" s="15"/>
-      <c r="BG22" s="15"/>
-      <c r="BH22" s="15"/>
-      <c r="BI22" s="15"/>
-      <c r="BJ22" s="15"/>
-      <c r="BK22" s="15"/>
-      <c r="BL22" s="15"/>
-      <c r="BM22" s="15"/>
-      <c r="BN22" s="15"/>
-      <c r="BO22" s="15"/>
-      <c r="BP22" s="15"/>
-      <c r="BQ22" s="15"/>
-      <c r="BR22" s="15"/>
-      <c r="BS22" s="15"/>
-      <c r="BT22" s="15"/>
-      <c r="BU22" s="15"/>
-      <c r="BV22" s="15"/>
-      <c r="BW22" s="15"/>
-      <c r="BX22" s="15"/>
-      <c r="BY22" s="15"/>
-      <c r="BZ22" s="15"/>
-      <c r="CA22" s="15"/>
-      <c r="CB22" s="15"/>
-      <c r="CC22" s="15"/>
-      <c r="CD22" s="15"/>
-      <c r="CE22" s="15"/>
-      <c r="CF22" s="15"/>
-      <c r="CG22" s="15"/>
-      <c r="CH22" s="15"/>
-      <c r="CI22" s="15"/>
-      <c r="CJ22" s="15"/>
-      <c r="CK22" s="15"/>
-      <c r="CL22" s="15"/>
-      <c r="CM22" s="15"/>
-      <c r="CN22" s="15"/>
-      <c r="CO22" s="15"/>
-      <c r="CP22" s="15"/>
-      <c r="CQ22" s="15"/>
-      <c r="CR22" s="15"/>
-      <c r="CS22" s="15"/>
-      <c r="CT22" s="15"/>
-      <c r="CU22" s="15"/>
-      <c r="CV22" s="15"/>
-      <c r="CW22" s="15"/>
-      <c r="CX22" s="15"/>
-      <c r="CY22" s="15"/>
-      <c r="CZ22" s="15"/>
-      <c r="DA22" s="15"/>
-      <c r="DB22" s="15"/>
-      <c r="DC22" s="15"/>
-      <c r="DD22" s="15"/>
-      <c r="DE22" s="15"/>
+      <c r="BF22" s="4"/>
+      <c r="BG22" s="4"/>
+      <c r="BH22" s="4"/>
+      <c r="BI22" s="4"/>
+      <c r="BJ22" s="4"/>
+      <c r="BK22" s="4"/>
+      <c r="BL22" s="4"/>
+      <c r="BM22" s="4"/>
+      <c r="BN22" s="4"/>
+      <c r="BO22" s="4"/>
+      <c r="BP22" s="4"/>
+      <c r="BQ22" s="4"/>
+      <c r="BR22" s="4"/>
+      <c r="BS22" s="4"/>
+      <c r="BT22" s="4"/>
+      <c r="BU22" s="4"/>
+      <c r="BV22" s="4"/>
+      <c r="BW22" s="4"/>
+      <c r="BX22" s="4"/>
+      <c r="BY22" s="4"/>
+      <c r="BZ22" s="4"/>
+      <c r="CA22" s="4"/>
+      <c r="CB22" s="4"/>
+      <c r="CC22" s="4"/>
+      <c r="CD22" s="4"/>
+      <c r="CE22" s="4"/>
+      <c r="CF22" s="4"/>
+      <c r="CG22" s="4"/>
+      <c r="CH22" s="4"/>
+      <c r="CI22" s="4"/>
+      <c r="CJ22" s="4"/>
+      <c r="CK22" s="4"/>
+      <c r="CL22" s="4"/>
+      <c r="CM22" s="4"/>
+      <c r="CN22" s="4"/>
+      <c r="CO22" s="4"/>
+      <c r="CP22" s="4"/>
+      <c r="CQ22" s="4"/>
+      <c r="CR22" s="4"/>
+      <c r="CS22" s="4"/>
+      <c r="CT22" s="4"/>
+      <c r="CU22" s="4"/>
+      <c r="CV22" s="4"/>
+      <c r="CW22" s="4"/>
+      <c r="CX22" s="4"/>
+      <c r="CY22" s="4"/>
+      <c r="CZ22" s="4"/>
+      <c r="DA22" s="4"/>
+      <c r="DB22" s="4"/>
+      <c r="DC22" s="4"/>
+      <c r="DD22" s="4"/>
+      <c r="DE22" s="4"/>
       <c r="DG22" s="22"/>
       <c r="DH22" s="22"/>
       <c r="DI22" s="22"/>
@@ -11193,11 +11212,13 @@
       <c r="QG22" s="22"/>
       <c r="QH22" s="22"/>
       <c r="QI22" s="22"/>
-      <c r="QJ22" s="22"/>
-      <c r="QK22" s="22"/>
-      <c r="QL22" s="3" t="s">
-        <v>25</v>
+      <c r="QJ22" s="3" t="s">
+        <v>23</v>
       </c>
+      <c r="QK22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="QM22" s="22"/>
       <c r="QN22" s="22"/>
       <c r="QO22" s="22"/>
       <c r="QP22" s="22"/>
@@ -11208,120 +11229,121 @@
       <c r="QW22" s="22"/>
       <c r="QX22" s="22"/>
       <c r="QY22" s="22"/>
-      <c r="QZ22" s="3" t="s">
+      <c r="QZ22" s="22"/>
+    </row>
+    <row r="23" spans="1:468" ht="14.25" customHeight="1">
+      <c r="A23" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:468" ht="14.25" customHeight="1">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="22"/>
-      <c r="AK23" s="22"/>
-      <c r="AL23" s="22"/>
-      <c r="AM23" s="22"/>
-      <c r="AN23" s="22"/>
-      <c r="AO23" s="22"/>
-      <c r="AP23" s="22"/>
-      <c r="AQ23" s="22"/>
-      <c r="AR23" s="22"/>
-      <c r="AS23" s="22"/>
-      <c r="AT23" s="22"/>
-      <c r="AU23" s="22"/>
-      <c r="AV23" s="22"/>
-      <c r="AW23" s="22"/>
-      <c r="AX23" s="22"/>
-      <c r="AY23" s="22"/>
-      <c r="AZ23" s="22"/>
-      <c r="BA23" s="22"/>
-      <c r="BB23" s="22"/>
-      <c r="BC23" s="22"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
+      <c r="AN23" s="15"/>
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="15"/>
+      <c r="AQ23" s="15"/>
+      <c r="AR23" s="15"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="15"/>
+      <c r="AV23" s="15"/>
+      <c r="AW23" s="15"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="15"/>
+      <c r="AZ23" s="15"/>
+      <c r="BA23" s="15"/>
+      <c r="BB23" s="15"/>
       <c r="BD23" s="22"/>
-      <c r="BE23" s="22"/>
-      <c r="BF23" s="22"/>
-      <c r="BG23" s="22"/>
-      <c r="BH23" s="22"/>
-      <c r="BI23" s="22"/>
-      <c r="BJ23" s="22"/>
-      <c r="BK23" s="22"/>
-      <c r="BL23" s="22"/>
-      <c r="BM23" s="22"/>
-      <c r="BN23" s="22"/>
-      <c r="BO23" s="22"/>
-      <c r="BP23" s="22"/>
-      <c r="BQ23" s="22"/>
-      <c r="BR23" s="22"/>
-      <c r="BS23" s="22"/>
-      <c r="BT23" s="22"/>
-      <c r="BU23" s="22"/>
-      <c r="BV23" s="22"/>
-      <c r="BW23" s="22"/>
-      <c r="BX23" s="22"/>
-      <c r="BY23" s="22"/>
-      <c r="BZ23" s="22"/>
-      <c r="CA23" s="22"/>
-      <c r="CB23" s="22"/>
-      <c r="CC23" s="22"/>
-      <c r="CD23" s="22"/>
-      <c r="CE23" s="22"/>
-      <c r="CF23" s="22"/>
-      <c r="CG23" s="22"/>
-      <c r="CH23" s="22"/>
-      <c r="CI23" s="22"/>
-      <c r="CJ23" s="22"/>
-      <c r="CK23" s="22"/>
-      <c r="CL23" s="22"/>
-      <c r="CM23" s="22"/>
-      <c r="CN23" s="22"/>
-      <c r="CO23" s="22"/>
-      <c r="CP23" s="22"/>
-      <c r="CQ23" s="22"/>
-      <c r="CR23" s="22"/>
-      <c r="CS23" s="22"/>
-      <c r="CT23" s="22"/>
-      <c r="CU23" s="22"/>
-      <c r="CV23" s="22"/>
-      <c r="CW23" s="22"/>
-      <c r="CX23" s="22"/>
-      <c r="CY23" s="22"/>
-      <c r="CZ23" s="22"/>
-      <c r="DA23" s="22"/>
-      <c r="DB23" s="22"/>
-      <c r="DC23" s="22"/>
-      <c r="DD23" s="22"/>
-      <c r="DE23" s="22"/>
-      <c r="DF23" s="22"/>
+      <c r="BE23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF23" s="15"/>
+      <c r="BG23" s="15"/>
+      <c r="BH23" s="15"/>
+      <c r="BI23" s="15"/>
+      <c r="BJ23" s="15"/>
+      <c r="BK23" s="15"/>
+      <c r="BL23" s="15"/>
+      <c r="BM23" s="15"/>
+      <c r="BN23" s="15"/>
+      <c r="BO23" s="15"/>
+      <c r="BP23" s="15"/>
+      <c r="BQ23" s="15"/>
+      <c r="BR23" s="15"/>
+      <c r="BS23" s="15"/>
+      <c r="BT23" s="15"/>
+      <c r="BU23" s="15"/>
+      <c r="BV23" s="15"/>
+      <c r="BW23" s="15"/>
+      <c r="BX23" s="15"/>
+      <c r="BY23" s="15"/>
+      <c r="BZ23" s="15"/>
+      <c r="CA23" s="15"/>
+      <c r="CB23" s="15"/>
+      <c r="CC23" s="15"/>
+      <c r="CD23" s="15"/>
+      <c r="CE23" s="15"/>
+      <c r="CF23" s="15"/>
+      <c r="CG23" s="15"/>
+      <c r="CH23" s="15"/>
+      <c r="CI23" s="15"/>
+      <c r="CJ23" s="15"/>
+      <c r="CK23" s="15"/>
+      <c r="CL23" s="15"/>
+      <c r="CM23" s="15"/>
+      <c r="CN23" s="15"/>
+      <c r="CO23" s="15"/>
+      <c r="CP23" s="15"/>
+      <c r="CQ23" s="15"/>
+      <c r="CR23" s="15"/>
+      <c r="CS23" s="15"/>
+      <c r="CT23" s="15"/>
+      <c r="CU23" s="15"/>
+      <c r="CV23" s="15"/>
+      <c r="CW23" s="15"/>
+      <c r="CX23" s="15"/>
+      <c r="CY23" s="15"/>
+      <c r="CZ23" s="15"/>
+      <c r="DA23" s="15"/>
+      <c r="DB23" s="15"/>
+      <c r="DC23" s="15"/>
+      <c r="DD23" s="15"/>
+      <c r="DE23" s="15"/>
       <c r="DG23" s="22"/>
       <c r="DH23" s="22"/>
       <c r="DI23" s="22"/>
@@ -11665,13 +11687,12 @@
       <c r="QI23" s="22"/>
       <c r="QJ23" s="22"/>
       <c r="QK23" s="22"/>
-      <c r="QL23" s="22"/>
-      <c r="QM23" s="22"/>
+      <c r="QL23" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="QN23" s="22"/>
       <c r="QO23" s="22"/>
       <c r="QP23" s="22"/>
-      <c r="QQ23" s="22"/>
-      <c r="QR23" s="22"/>
       <c r="QS23" s="22"/>
       <c r="QT23" s="22"/>
       <c r="QU23" s="22"/>
@@ -11679,121 +11700,120 @@
       <c r="QW23" s="22"/>
       <c r="QX23" s="22"/>
       <c r="QY23" s="22"/>
-      <c r="QZ23" s="22"/>
+      <c r="QZ23" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:468" ht="14.25" customHeight="1">
-      <c r="A24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
-      <c r="AJ24" s="16"/>
-      <c r="AK24" s="16"/>
-      <c r="AL24" s="16"/>
-      <c r="AM24" s="16"/>
-      <c r="AN24" s="16"/>
-      <c r="AO24" s="16"/>
-      <c r="AP24" s="16"/>
-      <c r="AQ24" s="16"/>
-      <c r="AR24" s="16"/>
-      <c r="AS24" s="16"/>
-      <c r="AT24" s="16"/>
-      <c r="AU24" s="16"/>
-      <c r="AV24" s="16"/>
-      <c r="AW24" s="16"/>
-      <c r="AX24" s="16"/>
-      <c r="AY24" s="16"/>
-      <c r="AZ24" s="16"/>
-      <c r="BA24" s="16"/>
-      <c r="BB24" s="16"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="22"/>
+      <c r="AK24" s="22"/>
+      <c r="AL24" s="22"/>
+      <c r="AM24" s="22"/>
+      <c r="AN24" s="22"/>
+      <c r="AO24" s="22"/>
+      <c r="AP24" s="22"/>
+      <c r="AQ24" s="22"/>
+      <c r="AR24" s="22"/>
+      <c r="AS24" s="22"/>
+      <c r="AT24" s="22"/>
+      <c r="AU24" s="22"/>
+      <c r="AV24" s="22"/>
+      <c r="AW24" s="22"/>
+      <c r="AX24" s="22"/>
+      <c r="AY24" s="22"/>
+      <c r="AZ24" s="22"/>
+      <c r="BA24" s="22"/>
+      <c r="BB24" s="22"/>
+      <c r="BC24" s="22"/>
       <c r="BD24" s="22"/>
-      <c r="BE24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="BF24" s="16"/>
-      <c r="BG24" s="16"/>
-      <c r="BH24" s="16"/>
-      <c r="BI24" s="16"/>
-      <c r="BJ24" s="16"/>
-      <c r="BK24" s="16"/>
-      <c r="BL24" s="16"/>
-      <c r="BM24" s="16"/>
-      <c r="BN24" s="16"/>
-      <c r="BO24" s="16"/>
-      <c r="BP24" s="16"/>
-      <c r="BQ24" s="16"/>
-      <c r="BR24" s="16"/>
-      <c r="BS24" s="16"/>
-      <c r="BT24" s="16"/>
-      <c r="BU24" s="16"/>
-      <c r="BV24" s="16"/>
-      <c r="BW24" s="16"/>
-      <c r="BX24" s="16"/>
-      <c r="BY24" s="16"/>
-      <c r="BZ24" s="16"/>
-      <c r="CA24" s="16"/>
-      <c r="CB24" s="16"/>
-      <c r="CC24" s="16"/>
-      <c r="CD24" s="16"/>
-      <c r="CE24" s="16"/>
-      <c r="CF24" s="16"/>
-      <c r="CG24" s="16"/>
-      <c r="CH24" s="16"/>
-      <c r="CI24" s="16"/>
-      <c r="CJ24" s="16"/>
-      <c r="CK24" s="16"/>
-      <c r="CL24" s="16"/>
-      <c r="CM24" s="16"/>
-      <c r="CN24" s="16"/>
-      <c r="CO24" s="16"/>
-      <c r="CP24" s="16"/>
-      <c r="CQ24" s="16"/>
-      <c r="CR24" s="16"/>
-      <c r="CS24" s="16"/>
-      <c r="CT24" s="16"/>
-      <c r="CU24" s="16"/>
-      <c r="CV24" s="16"/>
-      <c r="CW24" s="16"/>
-      <c r="CX24" s="16"/>
-      <c r="CY24" s="16"/>
-      <c r="CZ24" s="16"/>
-      <c r="DA24" s="16"/>
-      <c r="DB24" s="16"/>
-      <c r="DC24" s="16"/>
-      <c r="DD24" s="16"/>
-      <c r="DE24" s="16"/>
+      <c r="BE24" s="22"/>
+      <c r="BF24" s="22"/>
+      <c r="BG24" s="22"/>
+      <c r="BH24" s="22"/>
+      <c r="BI24" s="22"/>
+      <c r="BJ24" s="22"/>
+      <c r="BK24" s="22"/>
+      <c r="BL24" s="22"/>
+      <c r="BM24" s="22"/>
+      <c r="BN24" s="22"/>
+      <c r="BO24" s="22"/>
+      <c r="BP24" s="22"/>
+      <c r="BQ24" s="22"/>
+      <c r="BR24" s="22"/>
+      <c r="BS24" s="22"/>
+      <c r="BT24" s="22"/>
+      <c r="BU24" s="22"/>
+      <c r="BV24" s="22"/>
+      <c r="BW24" s="22"/>
+      <c r="BX24" s="22"/>
+      <c r="BY24" s="22"/>
+      <c r="BZ24" s="22"/>
+      <c r="CA24" s="22"/>
+      <c r="CB24" s="22"/>
+      <c r="CC24" s="22"/>
+      <c r="CD24" s="22"/>
+      <c r="CE24" s="22"/>
+      <c r="CF24" s="22"/>
+      <c r="CG24" s="22"/>
+      <c r="CH24" s="22"/>
+      <c r="CI24" s="22"/>
+      <c r="CJ24" s="22"/>
+      <c r="CK24" s="22"/>
+      <c r="CL24" s="22"/>
+      <c r="CM24" s="22"/>
+      <c r="CN24" s="22"/>
+      <c r="CO24" s="22"/>
+      <c r="CP24" s="22"/>
+      <c r="CQ24" s="22"/>
+      <c r="CR24" s="22"/>
+      <c r="CS24" s="22"/>
+      <c r="CT24" s="22"/>
+      <c r="CU24" s="22"/>
+      <c r="CV24" s="22"/>
+      <c r="CW24" s="22"/>
+      <c r="CX24" s="22"/>
+      <c r="CY24" s="22"/>
+      <c r="CZ24" s="22"/>
+      <c r="DA24" s="22"/>
+      <c r="DB24" s="22"/>
+      <c r="DC24" s="22"/>
+      <c r="DD24" s="22"/>
+      <c r="DE24" s="22"/>
+      <c r="DF24" s="22"/>
       <c r="DG24" s="22"/>
       <c r="DH24" s="22"/>
       <c r="DI24" s="22"/>
@@ -12128,9 +12148,8 @@
       <c r="PZ24" s="22"/>
       <c r="QA24" s="22"/>
       <c r="QB24" s="22"/>
-      <c r="QC24" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="QC24" s="22"/>
+      <c r="QD24" s="22"/>
       <c r="QE24" s="22"/>
       <c r="QF24" s="22"/>
       <c r="QG24" s="22"/>
@@ -12143,19 +12162,20 @@
       <c r="QN24" s="22"/>
       <c r="QO24" s="22"/>
       <c r="QP24" s="22"/>
+      <c r="QQ24" s="22"/>
+      <c r="QR24" s="22"/>
       <c r="QS24" s="22"/>
       <c r="QT24" s="22"/>
       <c r="QU24" s="22"/>
       <c r="QV24" s="22"/>
       <c r="QW24" s="22"/>
-      <c r="QX24" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="QX24" s="22"/>
+      <c r="QY24" s="22"/>
       <c r="QZ24" s="22"/>
     </row>
     <row r="25" spans="1:468" ht="14.25" customHeight="1">
       <c r="A25" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -12212,7 +12232,7 @@
       <c r="BB25" s="16"/>
       <c r="BD25" s="22"/>
       <c r="BE25" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BF25" s="16"/>
       <c r="BG25" s="16"/>
@@ -12599,10 +12619,10 @@
       <c r="PY25" s="22"/>
       <c r="PZ25" s="22"/>
       <c r="QA25" s="22"/>
-      <c r="QB25" s="3" t="s">
-        <v>29</v>
+      <c r="QB25" s="22"/>
+      <c r="QC25" s="3" t="s">
+        <v>27</v>
       </c>
-      <c r="QD25" s="22"/>
       <c r="QE25" s="22"/>
       <c r="QF25" s="22"/>
       <c r="QG25" s="22"/>
@@ -12618,123 +12638,126 @@
       <c r="QS25" s="22"/>
       <c r="QT25" s="22"/>
       <c r="QU25" s="22"/>
-      <c r="QV25" s="3" t="s">
-        <v>28</v>
+      <c r="QV25" s="22"/>
+      <c r="QW25" s="22"/>
+      <c r="QX25" s="3" t="s">
+        <v>26</v>
       </c>
-      <c r="QX25" s="22"/>
-      <c r="QY25" s="22"/>
       <c r="QZ25" s="22"/>
     </row>
     <row r="26" spans="1:468" ht="14.25" customHeight="1">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="22"/>
-      <c r="AE26" s="22"/>
-      <c r="AF26" s="22"/>
-      <c r="AG26" s="22"/>
-      <c r="AH26" s="22"/>
-      <c r="AI26" s="22"/>
-      <c r="AJ26" s="22"/>
-      <c r="AK26" s="22"/>
-      <c r="AL26" s="22"/>
-      <c r="AM26" s="22"/>
-      <c r="AN26" s="22"/>
-      <c r="AO26" s="22"/>
-      <c r="AP26" s="22"/>
-      <c r="AQ26" s="22"/>
-      <c r="AR26" s="22"/>
-      <c r="AS26" s="22"/>
-      <c r="AT26" s="22"/>
-      <c r="AU26" s="22"/>
-      <c r="AV26" s="22"/>
-      <c r="AW26" s="22"/>
-      <c r="AX26" s="22"/>
-      <c r="AY26" s="22"/>
-      <c r="AZ26" s="22"/>
-      <c r="BA26" s="22"/>
-      <c r="BB26" s="22"/>
-      <c r="BC26" s="22"/>
+      <c r="A26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="16"/>
+      <c r="AM26" s="16"/>
+      <c r="AN26" s="16"/>
+      <c r="AO26" s="16"/>
+      <c r="AP26" s="16"/>
+      <c r="AQ26" s="16"/>
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="16"/>
+      <c r="AT26" s="16"/>
+      <c r="AU26" s="16"/>
+      <c r="AV26" s="16"/>
+      <c r="AW26" s="16"/>
+      <c r="AX26" s="16"/>
+      <c r="AY26" s="16"/>
+      <c r="AZ26" s="16"/>
+      <c r="BA26" s="16"/>
+      <c r="BB26" s="16"/>
       <c r="BD26" s="22"/>
-      <c r="BE26" s="22"/>
-      <c r="BF26" s="22"/>
-      <c r="BG26" s="22"/>
-      <c r="BH26" s="22"/>
-      <c r="BI26" s="22"/>
-      <c r="BJ26" s="22"/>
-      <c r="BK26" s="22"/>
-      <c r="BL26" s="22"/>
-      <c r="BM26" s="22"/>
-      <c r="BN26" s="22"/>
-      <c r="BO26" s="22"/>
-      <c r="BP26" s="22"/>
-      <c r="BQ26" s="22"/>
-      <c r="BR26" s="22"/>
-      <c r="BS26" s="22"/>
-      <c r="BT26" s="22"/>
-      <c r="BU26" s="22"/>
-      <c r="BV26" s="22"/>
-      <c r="BW26" s="22"/>
-      <c r="BX26" s="22"/>
-      <c r="BY26" s="22"/>
-      <c r="BZ26" s="22"/>
-      <c r="CA26" s="22"/>
-      <c r="CB26" s="22"/>
-      <c r="CC26" s="22"/>
-      <c r="CD26" s="22"/>
-      <c r="CE26" s="22"/>
-      <c r="CF26" s="22"/>
-      <c r="CG26" s="22"/>
-      <c r="CH26" s="22"/>
-      <c r="CI26" s="22"/>
-      <c r="CJ26" s="22"/>
-      <c r="CK26" s="22"/>
-      <c r="CL26" s="22"/>
-      <c r="CM26" s="22"/>
-      <c r="CN26" s="22"/>
-      <c r="CO26" s="22"/>
-      <c r="CP26" s="22"/>
-      <c r="CQ26" s="22"/>
-      <c r="CR26" s="22"/>
-      <c r="CS26" s="22"/>
-      <c r="CT26" s="22"/>
-      <c r="CU26" s="22"/>
-      <c r="CV26" s="22"/>
-      <c r="CW26" s="22"/>
-      <c r="CX26" s="22"/>
-      <c r="CY26" s="22"/>
-      <c r="CZ26" s="22"/>
-      <c r="DA26" s="22"/>
-      <c r="DB26" s="22"/>
-      <c r="DC26" s="22"/>
-      <c r="DD26" s="22"/>
-      <c r="DE26" s="22"/>
-      <c r="DF26" s="22"/>
+      <c r="BE26" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF26" s="16"/>
+      <c r="BG26" s="16"/>
+      <c r="BH26" s="16"/>
+      <c r="BI26" s="16"/>
+      <c r="BJ26" s="16"/>
+      <c r="BK26" s="16"/>
+      <c r="BL26" s="16"/>
+      <c r="BM26" s="16"/>
+      <c r="BN26" s="16"/>
+      <c r="BO26" s="16"/>
+      <c r="BP26" s="16"/>
+      <c r="BQ26" s="16"/>
+      <c r="BR26" s="16"/>
+      <c r="BS26" s="16"/>
+      <c r="BT26" s="16"/>
+      <c r="BU26" s="16"/>
+      <c r="BV26" s="16"/>
+      <c r="BW26" s="16"/>
+      <c r="BX26" s="16"/>
+      <c r="BY26" s="16"/>
+      <c r="BZ26" s="16"/>
+      <c r="CA26" s="16"/>
+      <c r="CB26" s="16"/>
+      <c r="CC26" s="16"/>
+      <c r="CD26" s="16"/>
+      <c r="CE26" s="16"/>
+      <c r="CF26" s="16"/>
+      <c r="CG26" s="16"/>
+      <c r="CH26" s="16"/>
+      <c r="CI26" s="16"/>
+      <c r="CJ26" s="16"/>
+      <c r="CK26" s="16"/>
+      <c r="CL26" s="16"/>
+      <c r="CM26" s="16"/>
+      <c r="CN26" s="16"/>
+      <c r="CO26" s="16"/>
+      <c r="CP26" s="16"/>
+      <c r="CQ26" s="16"/>
+      <c r="CR26" s="16"/>
+      <c r="CS26" s="16"/>
+      <c r="CT26" s="16"/>
+      <c r="CU26" s="16"/>
+      <c r="CV26" s="16"/>
+      <c r="CW26" s="16"/>
+      <c r="CX26" s="16"/>
+      <c r="CY26" s="16"/>
+      <c r="CZ26" s="16"/>
+      <c r="DA26" s="16"/>
+      <c r="DB26" s="16"/>
+      <c r="DC26" s="16"/>
+      <c r="DD26" s="16"/>
+      <c r="DE26" s="16"/>
       <c r="DG26" s="22"/>
       <c r="DH26" s="22"/>
       <c r="DI26" s="22"/>
@@ -13068,8 +13091,9 @@
       <c r="PY26" s="22"/>
       <c r="PZ26" s="22"/>
       <c r="QA26" s="22"/>
-      <c r="QB26" s="22"/>
-      <c r="QC26" s="22"/>
+      <c r="QB26" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="QD26" s="22"/>
       <c r="QE26" s="22"/>
       <c r="QF26" s="22"/>
@@ -13083,138 +13107,126 @@
       <c r="QN26" s="22"/>
       <c r="QO26" s="22"/>
       <c r="QP26" s="22"/>
-      <c r="QQ26" s="22"/>
-      <c r="QR26" s="22"/>
       <c r="QS26" s="22"/>
       <c r="QT26" s="22"/>
       <c r="QU26" s="22"/>
-      <c r="QV26" s="22"/>
-      <c r="QW26" s="22"/>
+      <c r="QV26" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="QX26" s="22"/>
       <c r="QY26" s="22"/>
       <c r="QZ26" s="22"/>
     </row>
     <row r="27" spans="1:468" ht="14.25" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="33"/>
-      <c r="AK27" s="33"/>
-      <c r="AL27" s="33"/>
-      <c r="AM27" s="33"/>
-      <c r="AN27" s="33"/>
-      <c r="AO27" s="33"/>
-      <c r="AP27" s="33"/>
-      <c r="AQ27" s="33"/>
-      <c r="AR27" s="33"/>
-      <c r="AS27" s="33"/>
-      <c r="AT27" s="33"/>
-      <c r="AU27" s="33"/>
-      <c r="AV27" s="33"/>
-      <c r="AW27" s="33"/>
-      <c r="AX27" s="33"/>
-      <c r="AY27" s="33"/>
-      <c r="AZ27" s="33"/>
-      <c r="BA27" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB27" s="16"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="22"/>
+      <c r="AK27" s="22"/>
+      <c r="AL27" s="22"/>
+      <c r="AM27" s="22"/>
+      <c r="AN27" s="22"/>
+      <c r="AO27" s="22"/>
+      <c r="AP27" s="22"/>
+      <c r="AQ27" s="22"/>
+      <c r="AR27" s="22"/>
+      <c r="AS27" s="22"/>
+      <c r="AT27" s="22"/>
+      <c r="AU27" s="22"/>
+      <c r="AV27" s="22"/>
+      <c r="AW27" s="22"/>
+      <c r="AX27" s="22"/>
+      <c r="AY27" s="22"/>
+      <c r="AZ27" s="22"/>
+      <c r="BA27" s="22"/>
+      <c r="BB27" s="22"/>
+      <c r="BC27" s="22"/>
       <c r="BD27" s="22"/>
-      <c r="BE27" s="32"/>
-      <c r="BF27" s="32"/>
-      <c r="BG27" s="32"/>
-      <c r="BH27" s="32"/>
-      <c r="BI27" s="32"/>
-      <c r="BJ27" s="32"/>
-      <c r="BK27" s="32"/>
-      <c r="BL27" s="32"/>
-      <c r="BM27" s="32"/>
-      <c r="BN27" s="32"/>
-      <c r="BO27" s="32"/>
-      <c r="BP27" s="32"/>
-      <c r="BQ27" s="32"/>
-      <c r="BR27" s="32"/>
-      <c r="BS27" s="32"/>
-      <c r="BT27" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="BU27" s="18"/>
-      <c r="BV27" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="BW27" s="16"/>
-      <c r="BX27" s="16"/>
-      <c r="BY27" s="16"/>
-      <c r="BZ27" s="16"/>
-      <c r="CA27" s="16"/>
-      <c r="CB27" s="16"/>
-      <c r="CC27" s="16"/>
-      <c r="CD27" s="16"/>
-      <c r="CE27" s="16"/>
-      <c r="CF27" s="16"/>
-      <c r="CG27" s="16"/>
-      <c r="CH27" s="16"/>
-      <c r="CI27" s="16"/>
-      <c r="CJ27" s="16"/>
-      <c r="CK27" s="16"/>
-      <c r="CL27" s="16"/>
-      <c r="CM27" s="16"/>
-      <c r="CN27" s="16"/>
-      <c r="CO27" s="16"/>
-      <c r="CP27" s="16"/>
-      <c r="CQ27" s="16"/>
-      <c r="CR27" s="16"/>
-      <c r="CS27" s="16"/>
-      <c r="CT27" s="16"/>
-      <c r="CU27" s="16"/>
-      <c r="CV27" s="16"/>
-      <c r="CW27" s="16"/>
-      <c r="CX27" s="16"/>
-      <c r="CY27" s="16"/>
-      <c r="CZ27" s="16"/>
-      <c r="DA27" s="16"/>
-      <c r="DB27" s="16"/>
-      <c r="DC27" s="16"/>
-      <c r="DD27" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="DE27" s="16"/>
+      <c r="BE27" s="22"/>
+      <c r="BF27" s="22"/>
+      <c r="BG27" s="22"/>
+      <c r="BH27" s="22"/>
+      <c r="BI27" s="22"/>
+      <c r="BJ27" s="22"/>
+      <c r="BK27" s="22"/>
+      <c r="BL27" s="22"/>
+      <c r="BM27" s="22"/>
+      <c r="BN27" s="22"/>
+      <c r="BO27" s="22"/>
+      <c r="BP27" s="22"/>
+      <c r="BQ27" s="22"/>
+      <c r="BR27" s="22"/>
+      <c r="BS27" s="22"/>
+      <c r="BT27" s="22"/>
+      <c r="BU27" s="22"/>
+      <c r="BV27" s="22"/>
+      <c r="BW27" s="22"/>
+      <c r="BX27" s="22"/>
+      <c r="BY27" s="22"/>
+      <c r="BZ27" s="22"/>
+      <c r="CA27" s="22"/>
+      <c r="CB27" s="22"/>
+      <c r="CC27" s="22"/>
+      <c r="CD27" s="22"/>
+      <c r="CE27" s="22"/>
+      <c r="CF27" s="22"/>
+      <c r="CG27" s="22"/>
+      <c r="CH27" s="22"/>
+      <c r="CI27" s="22"/>
+      <c r="CJ27" s="22"/>
+      <c r="CK27" s="22"/>
+      <c r="CL27" s="22"/>
+      <c r="CM27" s="22"/>
+      <c r="CN27" s="22"/>
+      <c r="CO27" s="22"/>
+      <c r="CP27" s="22"/>
+      <c r="CQ27" s="22"/>
+      <c r="CR27" s="22"/>
+      <c r="CS27" s="22"/>
+      <c r="CT27" s="22"/>
+      <c r="CU27" s="22"/>
+      <c r="CV27" s="22"/>
+      <c r="CW27" s="22"/>
+      <c r="CX27" s="22"/>
+      <c r="CY27" s="22"/>
+      <c r="CZ27" s="22"/>
+      <c r="DA27" s="22"/>
+      <c r="DB27" s="22"/>
+      <c r="DC27" s="22"/>
+      <c r="DD27" s="22"/>
+      <c r="DE27" s="22"/>
+      <c r="DF27" s="22"/>
       <c r="DG27" s="22"/>
       <c r="DH27" s="22"/>
       <c r="DI27" s="22"/>
@@ -13559,13 +13571,12 @@
       <c r="QJ27" s="22"/>
       <c r="QK27" s="22"/>
       <c r="QL27" s="22"/>
-      <c r="QM27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="QN27" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="QM27" s="22"/>
+      <c r="QN27" s="22"/>
+      <c r="QO27" s="22"/>
       <c r="QP27" s="22"/>
+      <c r="QQ27" s="22"/>
+      <c r="QR27" s="22"/>
       <c r="QS27" s="22"/>
       <c r="QT27" s="22"/>
       <c r="QU27" s="22"/>
@@ -13575,116 +13586,127 @@
       <c r="QY27" s="22"/>
       <c r="QZ27" s="22"/>
     </row>
-    <row r="28" spans="1:468" ht="6" customHeight="1">
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="22"/>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="22"/>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="22"/>
-      <c r="AP28" s="22"/>
-      <c r="AQ28" s="22"/>
-      <c r="AR28" s="22"/>
-      <c r="AS28" s="22"/>
-      <c r="AT28" s="22"/>
-      <c r="AU28" s="22"/>
-      <c r="AV28" s="22"/>
-      <c r="AW28" s="22"/>
-      <c r="AX28" s="22"/>
-      <c r="AY28" s="22"/>
-      <c r="AZ28" s="22"/>
-      <c r="BA28" s="22"/>
-      <c r="BB28" s="22"/>
-      <c r="BC28" s="22"/>
+    <row r="28" spans="1:468" ht="14.25" customHeight="1">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="33"/>
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="33"/>
+      <c r="AG28" s="33"/>
+      <c r="AH28" s="33"/>
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="33"/>
+      <c r="AK28" s="33"/>
+      <c r="AL28" s="33"/>
+      <c r="AM28" s="33"/>
+      <c r="AN28" s="33"/>
+      <c r="AO28" s="33"/>
+      <c r="AP28" s="33"/>
+      <c r="AQ28" s="33"/>
+      <c r="AR28" s="33"/>
+      <c r="AS28" s="33"/>
+      <c r="AT28" s="33"/>
+      <c r="AU28" s="33"/>
+      <c r="AV28" s="33"/>
+      <c r="AW28" s="33"/>
+      <c r="AX28" s="33"/>
+      <c r="AY28" s="33"/>
+      <c r="AZ28" s="33"/>
+      <c r="BA28" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB28" s="16"/>
       <c r="BD28" s="22"/>
-      <c r="BE28" s="22"/>
-      <c r="BF28" s="22"/>
-      <c r="BG28" s="22"/>
-      <c r="BH28" s="22"/>
-      <c r="BI28" s="22"/>
-      <c r="BJ28" s="22"/>
-      <c r="BK28" s="22"/>
-      <c r="BL28" s="22"/>
-      <c r="BM28" s="22"/>
-      <c r="BN28" s="22"/>
-      <c r="BO28" s="22"/>
-      <c r="BP28" s="22"/>
-      <c r="BQ28" s="22"/>
-      <c r="BR28" s="22"/>
-      <c r="BS28" s="22"/>
-      <c r="BT28" s="22"/>
-      <c r="BU28" s="22"/>
-      <c r="BV28" s="22"/>
-      <c r="BW28" s="22"/>
-      <c r="BX28" s="22"/>
-      <c r="BY28" s="22"/>
-      <c r="BZ28" s="22"/>
-      <c r="CA28" s="22"/>
-      <c r="CB28" s="22"/>
-      <c r="CC28" s="22"/>
-      <c r="CD28" s="22"/>
-      <c r="CE28" s="22"/>
-      <c r="CF28" s="22"/>
-      <c r="CG28" s="22"/>
-      <c r="CH28" s="22"/>
-      <c r="CI28" s="22"/>
-      <c r="CJ28" s="22"/>
-      <c r="CK28" s="22"/>
-      <c r="CL28" s="22"/>
-      <c r="CM28" s="22"/>
-      <c r="CN28" s="22"/>
-      <c r="CO28" s="22"/>
-      <c r="CP28" s="22"/>
-      <c r="CQ28" s="22"/>
-      <c r="CR28" s="22"/>
-      <c r="CS28" s="22"/>
-      <c r="CT28" s="22"/>
-      <c r="CU28" s="22"/>
-      <c r="CV28" s="22"/>
-      <c r="CW28" s="22"/>
-      <c r="CX28" s="22"/>
-      <c r="CY28" s="22"/>
-      <c r="CZ28" s="22"/>
-      <c r="DA28" s="22"/>
-      <c r="DB28" s="22"/>
-      <c r="DC28" s="22"/>
-      <c r="DD28" s="22"/>
-      <c r="DE28" s="22"/>
-      <c r="DF28" s="22"/>
+      <c r="BE28" s="32"/>
+      <c r="BF28" s="32"/>
+      <c r="BG28" s="32"/>
+      <c r="BH28" s="32"/>
+      <c r="BI28" s="32"/>
+      <c r="BJ28" s="32"/>
+      <c r="BK28" s="32"/>
+      <c r="BL28" s="32"/>
+      <c r="BM28" s="32"/>
+      <c r="BN28" s="32"/>
+      <c r="BO28" s="32"/>
+      <c r="BP28" s="32"/>
+      <c r="BQ28" s="32"/>
+      <c r="BR28" s="32"/>
+      <c r="BS28" s="32"/>
+      <c r="BT28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="BU28" s="18"/>
+      <c r="BV28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW28" s="16"/>
+      <c r="BX28" s="16"/>
+      <c r="BY28" s="16"/>
+      <c r="BZ28" s="16"/>
+      <c r="CA28" s="16"/>
+      <c r="CB28" s="16"/>
+      <c r="CC28" s="16"/>
+      <c r="CD28" s="16"/>
+      <c r="CE28" s="16"/>
+      <c r="CF28" s="16"/>
+      <c r="CG28" s="16"/>
+      <c r="CH28" s="16"/>
+      <c r="CI28" s="16"/>
+      <c r="CJ28" s="16"/>
+      <c r="CK28" s="16"/>
+      <c r="CL28" s="16"/>
+      <c r="CM28" s="16"/>
+      <c r="CN28" s="16"/>
+      <c r="CO28" s="16"/>
+      <c r="CP28" s="16"/>
+      <c r="CQ28" s="16"/>
+      <c r="CR28" s="16"/>
+      <c r="CS28" s="16"/>
+      <c r="CT28" s="16"/>
+      <c r="CU28" s="16"/>
+      <c r="CV28" s="16"/>
+      <c r="CW28" s="16"/>
+      <c r="CX28" s="16"/>
+      <c r="CY28" s="16"/>
+      <c r="CZ28" s="16"/>
+      <c r="DA28" s="16"/>
+      <c r="DB28" s="16"/>
+      <c r="DC28" s="16"/>
+      <c r="DD28" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="DE28" s="16"/>
       <c r="DG28" s="22"/>
       <c r="DH28" s="22"/>
       <c r="DI28" s="22"/>
@@ -14029,12 +14051,13 @@
       <c r="QJ28" s="22"/>
       <c r="QK28" s="22"/>
       <c r="QL28" s="22"/>
-      <c r="QM28" s="22"/>
-      <c r="QN28" s="22"/>
-      <c r="QO28" s="22"/>
+      <c r="QM28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="QN28" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="QP28" s="22"/>
-      <c r="QQ28" s="22"/>
-      <c r="QR28" s="22"/>
       <c r="QS28" s="22"/>
       <c r="QT28" s="22"/>
       <c r="QU28" s="22"/>
@@ -14044,20 +14067,19 @@
       <c r="QY28" s="22"/>
       <c r="QZ28" s="22"/>
     </row>
-    <row r="29" spans="1:468" ht="14.25" customHeight="1">
+    <row r="29" spans="1:468" ht="6" customHeight="1">
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
-      <c r="G29" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
@@ -14111,15 +14133,14 @@
       <c r="BL29" s="22"/>
       <c r="BM29" s="22"/>
       <c r="BN29" s="22"/>
-      <c r="BO29" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="BP29" s="20"/>
-      <c r="BQ29" s="20"/>
-      <c r="BR29" s="20"/>
-      <c r="BS29" s="20"/>
-      <c r="BT29" s="20"/>
-      <c r="BU29" s="20"/>
+      <c r="BO29" s="22"/>
+      <c r="BP29" s="22"/>
+      <c r="BQ29" s="22"/>
+      <c r="BR29" s="22"/>
+      <c r="BS29" s="22"/>
+      <c r="BT29" s="22"/>
+      <c r="BU29" s="22"/>
+      <c r="BV29" s="22"/>
       <c r="BW29" s="22"/>
       <c r="BX29" s="22"/>
       <c r="BY29" s="22"/>
@@ -14515,19 +14536,20 @@
       <c r="QY29" s="22"/>
       <c r="QZ29" s="22"/>
     </row>
-    <row r="30" spans="1:468" ht="11.25" hidden="1">
+    <row r="30" spans="1:468" ht="14.25" customHeight="1">
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
+      <c r="G30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
@@ -14581,14 +14603,15 @@
       <c r="BL30" s="22"/>
       <c r="BM30" s="22"/>
       <c r="BN30" s="22"/>
-      <c r="BO30" s="22"/>
-      <c r="BP30" s="22"/>
-      <c r="BQ30" s="22"/>
-      <c r="BR30" s="22"/>
-      <c r="BS30" s="22"/>
-      <c r="BT30" s="22"/>
-      <c r="BU30" s="22"/>
-      <c r="BV30" s="22"/>
+      <c r="BO30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP30" s="20"/>
+      <c r="BQ30" s="20"/>
+      <c r="BR30" s="20"/>
+      <c r="BS30" s="20"/>
+      <c r="BT30" s="20"/>
+      <c r="BU30" s="20"/>
       <c r="BW30" s="22"/>
       <c r="BX30" s="22"/>
       <c r="BY30" s="22"/>
@@ -14624,6 +14647,7 @@
       <c r="DC30" s="22"/>
       <c r="DD30" s="22"/>
       <c r="DE30" s="22"/>
+      <c r="DF30" s="22"/>
       <c r="DG30" s="22"/>
       <c r="DH30" s="22"/>
       <c r="DI30" s="22"/>
@@ -14956,6 +14980,7 @@
       <c r="PX30" s="22"/>
       <c r="PY30" s="22"/>
       <c r="PZ30" s="22"/>
+      <c r="QA30" s="22"/>
       <c r="QB30" s="22"/>
       <c r="QC30" s="22"/>
       <c r="QD30" s="22"/>
@@ -14971,6 +14996,8 @@
       <c r="QN30" s="22"/>
       <c r="QO30" s="22"/>
       <c r="QP30" s="22"/>
+      <c r="QQ30" s="22"/>
+      <c r="QR30" s="22"/>
       <c r="QS30" s="22"/>
       <c r="QT30" s="22"/>
       <c r="QU30" s="22"/>
@@ -14980,8 +15007,473 @@
       <c r="QY30" s="22"/>
       <c r="QZ30" s="22"/>
     </row>
+    <row r="31" spans="1:468" ht="11.25" hidden="1">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="22"/>
+      <c r="AI31" s="22"/>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="22"/>
+      <c r="AL31" s="22"/>
+      <c r="AM31" s="22"/>
+      <c r="AN31" s="22"/>
+      <c r="AO31" s="22"/>
+      <c r="AP31" s="22"/>
+      <c r="AQ31" s="22"/>
+      <c r="AR31" s="22"/>
+      <c r="AS31" s="22"/>
+      <c r="AT31" s="22"/>
+      <c r="AU31" s="22"/>
+      <c r="AV31" s="22"/>
+      <c r="AW31" s="22"/>
+      <c r="AX31" s="22"/>
+      <c r="AY31" s="22"/>
+      <c r="AZ31" s="22"/>
+      <c r="BA31" s="22"/>
+      <c r="BB31" s="22"/>
+      <c r="BC31" s="22"/>
+      <c r="BD31" s="22"/>
+      <c r="BE31" s="22"/>
+      <c r="BF31" s="22"/>
+      <c r="BG31" s="22"/>
+      <c r="BH31" s="22"/>
+      <c r="BI31" s="22"/>
+      <c r="BJ31" s="22"/>
+      <c r="BK31" s="22"/>
+      <c r="BL31" s="22"/>
+      <c r="BM31" s="22"/>
+      <c r="BN31" s="22"/>
+      <c r="BO31" s="22"/>
+      <c r="BP31" s="22"/>
+      <c r="BQ31" s="22"/>
+      <c r="BR31" s="22"/>
+      <c r="BS31" s="22"/>
+      <c r="BT31" s="22"/>
+      <c r="BU31" s="22"/>
+      <c r="BV31" s="22"/>
+      <c r="BW31" s="22"/>
+      <c r="BX31" s="22"/>
+      <c r="BY31" s="22"/>
+      <c r="BZ31" s="22"/>
+      <c r="CA31" s="22"/>
+      <c r="CB31" s="22"/>
+      <c r="CC31" s="22"/>
+      <c r="CD31" s="22"/>
+      <c r="CE31" s="22"/>
+      <c r="CF31" s="22"/>
+      <c r="CG31" s="22"/>
+      <c r="CH31" s="22"/>
+      <c r="CI31" s="22"/>
+      <c r="CJ31" s="22"/>
+      <c r="CK31" s="22"/>
+      <c r="CL31" s="22"/>
+      <c r="CM31" s="22"/>
+      <c r="CN31" s="22"/>
+      <c r="CO31" s="22"/>
+      <c r="CP31" s="22"/>
+      <c r="CQ31" s="22"/>
+      <c r="CR31" s="22"/>
+      <c r="CS31" s="22"/>
+      <c r="CT31" s="22"/>
+      <c r="CU31" s="22"/>
+      <c r="CV31" s="22"/>
+      <c r="CW31" s="22"/>
+      <c r="CX31" s="22"/>
+      <c r="CY31" s="22"/>
+      <c r="CZ31" s="22"/>
+      <c r="DA31" s="22"/>
+      <c r="DB31" s="22"/>
+      <c r="DC31" s="22"/>
+      <c r="DD31" s="22"/>
+      <c r="DE31" s="22"/>
+      <c r="DG31" s="22"/>
+      <c r="DH31" s="22"/>
+      <c r="DI31" s="22"/>
+      <c r="DJ31" s="22"/>
+      <c r="DK31" s="22"/>
+      <c r="DL31" s="22"/>
+      <c r="DM31" s="22"/>
+      <c r="DN31" s="22"/>
+      <c r="DO31" s="22"/>
+      <c r="DP31" s="22"/>
+      <c r="DQ31" s="22"/>
+      <c r="DR31" s="22"/>
+      <c r="DS31" s="22"/>
+      <c r="DT31" s="22"/>
+      <c r="DU31" s="22"/>
+      <c r="DV31" s="22"/>
+      <c r="DW31" s="22"/>
+      <c r="DX31" s="22"/>
+      <c r="DY31" s="22"/>
+      <c r="DZ31" s="22"/>
+      <c r="EA31" s="22"/>
+      <c r="EB31" s="22"/>
+      <c r="EC31" s="22"/>
+      <c r="ED31" s="22"/>
+      <c r="EE31" s="22"/>
+      <c r="EF31" s="22"/>
+      <c r="EG31" s="22"/>
+      <c r="EH31" s="22"/>
+      <c r="EI31" s="22"/>
+      <c r="EJ31" s="22"/>
+      <c r="EK31" s="22"/>
+      <c r="EL31" s="22"/>
+      <c r="EM31" s="22"/>
+      <c r="EN31" s="22"/>
+      <c r="EO31" s="22"/>
+      <c r="EP31" s="22"/>
+      <c r="EQ31" s="22"/>
+      <c r="ER31" s="22"/>
+      <c r="ES31" s="22"/>
+      <c r="ET31" s="22"/>
+      <c r="EU31" s="22"/>
+      <c r="EV31" s="22"/>
+      <c r="EW31" s="22"/>
+      <c r="EX31" s="22"/>
+      <c r="EY31" s="22"/>
+      <c r="EZ31" s="22"/>
+      <c r="FA31" s="22"/>
+      <c r="FB31" s="22"/>
+      <c r="FC31" s="22"/>
+      <c r="FD31" s="22"/>
+      <c r="FE31" s="22"/>
+      <c r="FF31" s="22"/>
+      <c r="FG31" s="22"/>
+      <c r="FH31" s="22"/>
+      <c r="FI31" s="22"/>
+      <c r="FJ31" s="22"/>
+      <c r="FK31" s="22"/>
+      <c r="FL31" s="22"/>
+      <c r="FM31" s="22"/>
+      <c r="FN31" s="22"/>
+      <c r="FO31" s="22"/>
+      <c r="FP31" s="22"/>
+      <c r="FQ31" s="22"/>
+      <c r="FR31" s="22"/>
+      <c r="FS31" s="22"/>
+      <c r="FT31" s="22"/>
+      <c r="FU31" s="22"/>
+      <c r="FV31" s="22"/>
+      <c r="FW31" s="22"/>
+      <c r="FX31" s="22"/>
+      <c r="FY31" s="22"/>
+      <c r="FZ31" s="22"/>
+      <c r="GA31" s="22"/>
+      <c r="GB31" s="22"/>
+      <c r="GC31" s="22"/>
+      <c r="GD31" s="22"/>
+      <c r="GE31" s="22"/>
+      <c r="GF31" s="22"/>
+      <c r="GG31" s="22"/>
+      <c r="GH31" s="22"/>
+      <c r="GI31" s="22"/>
+      <c r="GJ31" s="22"/>
+      <c r="GK31" s="22"/>
+      <c r="GL31" s="22"/>
+      <c r="GM31" s="22"/>
+      <c r="GN31" s="22"/>
+      <c r="GO31" s="22"/>
+      <c r="GP31" s="22"/>
+      <c r="GQ31" s="22"/>
+      <c r="GR31" s="22"/>
+      <c r="GS31" s="22"/>
+      <c r="GT31" s="22"/>
+      <c r="GU31" s="22"/>
+      <c r="GV31" s="22"/>
+      <c r="GW31" s="22"/>
+      <c r="GX31" s="22"/>
+      <c r="GY31" s="22"/>
+      <c r="GZ31" s="22"/>
+      <c r="HA31" s="22"/>
+      <c r="HB31" s="22"/>
+      <c r="HC31" s="22"/>
+      <c r="HD31" s="22"/>
+      <c r="HE31" s="22"/>
+      <c r="HF31" s="22"/>
+      <c r="HG31" s="22"/>
+      <c r="HH31" s="22"/>
+      <c r="HI31" s="22"/>
+      <c r="HJ31" s="22"/>
+      <c r="HK31" s="22"/>
+      <c r="HL31" s="22"/>
+      <c r="HM31" s="22"/>
+      <c r="HN31" s="22"/>
+      <c r="HO31" s="22"/>
+      <c r="HP31" s="22"/>
+      <c r="HQ31" s="22"/>
+      <c r="HR31" s="22"/>
+      <c r="HS31" s="22"/>
+      <c r="HT31" s="22"/>
+      <c r="HU31" s="22"/>
+      <c r="HV31" s="22"/>
+      <c r="HW31" s="22"/>
+      <c r="HX31" s="22"/>
+      <c r="HY31" s="22"/>
+      <c r="HZ31" s="22"/>
+      <c r="IA31" s="22"/>
+      <c r="IB31" s="22"/>
+      <c r="IC31" s="22"/>
+      <c r="ID31" s="22"/>
+      <c r="IE31" s="22"/>
+      <c r="IF31" s="22"/>
+      <c r="IG31" s="22"/>
+      <c r="IH31" s="22"/>
+      <c r="II31" s="22"/>
+      <c r="IJ31" s="22"/>
+      <c r="IK31" s="22"/>
+      <c r="IL31" s="22"/>
+      <c r="IM31" s="22"/>
+      <c r="IN31" s="22"/>
+      <c r="IO31" s="22"/>
+      <c r="IP31" s="22"/>
+      <c r="IQ31" s="22"/>
+      <c r="IR31" s="22"/>
+      <c r="IS31" s="22"/>
+      <c r="IT31" s="22"/>
+      <c r="IU31" s="22"/>
+      <c r="IV31" s="22"/>
+      <c r="IW31" s="22"/>
+      <c r="IX31" s="22"/>
+      <c r="IY31" s="22"/>
+      <c r="IZ31" s="22"/>
+      <c r="JA31" s="22"/>
+      <c r="JB31" s="22"/>
+      <c r="JC31" s="22"/>
+      <c r="JD31" s="22"/>
+      <c r="JE31" s="22"/>
+      <c r="JF31" s="22"/>
+      <c r="JG31" s="22"/>
+      <c r="JH31" s="22"/>
+      <c r="JI31" s="22"/>
+      <c r="JJ31" s="22"/>
+      <c r="JK31" s="22"/>
+      <c r="JL31" s="22"/>
+      <c r="JM31" s="22"/>
+      <c r="JN31" s="22"/>
+      <c r="JO31" s="22"/>
+      <c r="JP31" s="22"/>
+      <c r="JQ31" s="22"/>
+      <c r="JR31" s="22"/>
+      <c r="JS31" s="22"/>
+      <c r="JT31" s="22"/>
+      <c r="JU31" s="22"/>
+      <c r="JV31" s="22"/>
+      <c r="JW31" s="22"/>
+      <c r="JX31" s="22"/>
+      <c r="JY31" s="22"/>
+      <c r="JZ31" s="22"/>
+      <c r="KA31" s="22"/>
+      <c r="KB31" s="22"/>
+      <c r="KC31" s="22"/>
+      <c r="KD31" s="22"/>
+      <c r="KE31" s="22"/>
+      <c r="KF31" s="22"/>
+      <c r="KG31" s="22"/>
+      <c r="KH31" s="22"/>
+      <c r="KI31" s="22"/>
+      <c r="KJ31" s="22"/>
+      <c r="KK31" s="22"/>
+      <c r="KL31" s="22"/>
+      <c r="KM31" s="22"/>
+      <c r="KN31" s="22"/>
+      <c r="KO31" s="22"/>
+      <c r="KP31" s="22"/>
+      <c r="KQ31" s="22"/>
+      <c r="KR31" s="22"/>
+      <c r="KS31" s="22"/>
+      <c r="KT31" s="22"/>
+      <c r="KU31" s="22"/>
+      <c r="KV31" s="22"/>
+      <c r="KW31" s="22"/>
+      <c r="KX31" s="22"/>
+      <c r="KY31" s="22"/>
+      <c r="KZ31" s="22"/>
+      <c r="LA31" s="22"/>
+      <c r="LB31" s="22"/>
+      <c r="LC31" s="22"/>
+      <c r="LD31" s="22"/>
+      <c r="LE31" s="22"/>
+      <c r="LF31" s="22"/>
+      <c r="LG31" s="22"/>
+      <c r="LH31" s="22"/>
+      <c r="LI31" s="22"/>
+      <c r="LJ31" s="22"/>
+      <c r="LK31" s="22"/>
+      <c r="LL31" s="22"/>
+      <c r="LM31" s="22"/>
+      <c r="LN31" s="22"/>
+      <c r="LO31" s="22"/>
+      <c r="LP31" s="22"/>
+      <c r="LQ31" s="22"/>
+      <c r="LR31" s="22"/>
+      <c r="LS31" s="22"/>
+      <c r="LT31" s="22"/>
+      <c r="LU31" s="22"/>
+      <c r="LV31" s="22"/>
+      <c r="LW31" s="22"/>
+      <c r="LX31" s="22"/>
+      <c r="LY31" s="22"/>
+      <c r="LZ31" s="22"/>
+      <c r="MA31" s="22"/>
+      <c r="MB31" s="22"/>
+      <c r="MC31" s="22"/>
+      <c r="MD31" s="22"/>
+      <c r="ME31" s="22"/>
+      <c r="MF31" s="22"/>
+      <c r="MG31" s="22"/>
+      <c r="MH31" s="22"/>
+      <c r="MI31" s="22"/>
+      <c r="MJ31" s="22"/>
+      <c r="MK31" s="22"/>
+      <c r="ML31" s="22"/>
+      <c r="MM31" s="22"/>
+      <c r="MN31" s="22"/>
+      <c r="MO31" s="22"/>
+      <c r="MP31" s="22"/>
+      <c r="MQ31" s="22"/>
+      <c r="MR31" s="22"/>
+      <c r="MS31" s="22"/>
+      <c r="MT31" s="22"/>
+      <c r="MU31" s="22"/>
+      <c r="MV31" s="22"/>
+      <c r="MW31" s="22"/>
+      <c r="MX31" s="22"/>
+      <c r="MY31" s="22"/>
+      <c r="MZ31" s="22"/>
+      <c r="NA31" s="22"/>
+      <c r="NB31" s="22"/>
+      <c r="NC31" s="22"/>
+      <c r="ND31" s="22"/>
+      <c r="NE31" s="22"/>
+      <c r="NF31" s="22"/>
+      <c r="NG31" s="22"/>
+      <c r="NH31" s="22"/>
+      <c r="NI31" s="22"/>
+      <c r="NJ31" s="22"/>
+      <c r="NK31" s="22"/>
+      <c r="NL31" s="22"/>
+      <c r="NM31" s="22"/>
+      <c r="NN31" s="22"/>
+      <c r="NO31" s="22"/>
+      <c r="NP31" s="22"/>
+      <c r="NQ31" s="22"/>
+      <c r="NR31" s="22"/>
+      <c r="NS31" s="22"/>
+      <c r="NT31" s="22"/>
+      <c r="NU31" s="22"/>
+      <c r="NV31" s="22"/>
+      <c r="NW31" s="22"/>
+      <c r="NX31" s="22"/>
+      <c r="NY31" s="22"/>
+      <c r="NZ31" s="22"/>
+      <c r="OA31" s="22"/>
+      <c r="OB31" s="22"/>
+      <c r="OC31" s="22"/>
+      <c r="OD31" s="22"/>
+      <c r="OE31" s="22"/>
+      <c r="OF31" s="22"/>
+      <c r="OG31" s="22"/>
+      <c r="OH31" s="22"/>
+      <c r="OI31" s="22"/>
+      <c r="OJ31" s="22"/>
+      <c r="OK31" s="22"/>
+      <c r="OL31" s="22"/>
+      <c r="OM31" s="22"/>
+      <c r="ON31" s="22"/>
+      <c r="OO31" s="22"/>
+      <c r="OP31" s="22"/>
+      <c r="OQ31" s="22"/>
+      <c r="OR31" s="22"/>
+      <c r="OS31" s="22"/>
+      <c r="OT31" s="22"/>
+      <c r="OU31" s="22"/>
+      <c r="OV31" s="22"/>
+      <c r="OW31" s="22"/>
+      <c r="OX31" s="22"/>
+      <c r="OY31" s="22"/>
+      <c r="OZ31" s="22"/>
+      <c r="PA31" s="22"/>
+      <c r="PB31" s="22"/>
+      <c r="PC31" s="22"/>
+      <c r="PD31" s="22"/>
+      <c r="PE31" s="22"/>
+      <c r="PF31" s="22"/>
+      <c r="PG31" s="22"/>
+      <c r="PH31" s="22"/>
+      <c r="PI31" s="22"/>
+      <c r="PJ31" s="22"/>
+      <c r="PK31" s="22"/>
+      <c r="PL31" s="22"/>
+      <c r="PM31" s="22"/>
+      <c r="PN31" s="22"/>
+      <c r="PO31" s="22"/>
+      <c r="PP31" s="22"/>
+      <c r="PQ31" s="22"/>
+      <c r="PR31" s="22"/>
+      <c r="PS31" s="22"/>
+      <c r="PT31" s="22"/>
+      <c r="PU31" s="22"/>
+      <c r="PV31" s="22"/>
+      <c r="PW31" s="22"/>
+      <c r="PX31" s="22"/>
+      <c r="PY31" s="22"/>
+      <c r="PZ31" s="22"/>
+      <c r="QB31" s="22"/>
+      <c r="QC31" s="22"/>
+      <c r="QD31" s="22"/>
+      <c r="QE31" s="22"/>
+      <c r="QF31" s="22"/>
+      <c r="QG31" s="22"/>
+      <c r="QH31" s="22"/>
+      <c r="QI31" s="22"/>
+      <c r="QJ31" s="22"/>
+      <c r="QK31" s="22"/>
+      <c r="QL31" s="22"/>
+      <c r="QM31" s="22"/>
+      <c r="QN31" s="22"/>
+      <c r="QO31" s="22"/>
+      <c r="QP31" s="22"/>
+      <c r="QS31" s="22"/>
+      <c r="QT31" s="22"/>
+      <c r="QU31" s="22"/>
+      <c r="QV31" s="22"/>
+      <c r="QW31" s="22"/>
+      <c r="QX31" s="22"/>
+      <c r="QY31" s="22"/>
+      <c r="QZ31" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="75">
     <mergeCell ref="A2:DE2"/>
     <mergeCell ref="A4:DE4"/>
     <mergeCell ref="A6:DE6"/>
@@ -15031,24 +15523,32 @@
     <mergeCell ref="BH19:CI19"/>
     <mergeCell ref="CJ19:CT19"/>
     <mergeCell ref="CU19:DE19"/>
-    <mergeCell ref="A21:BB21"/>
-    <mergeCell ref="BE21:DE21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:AG20"/>
+    <mergeCell ref="AH20:AR20"/>
+    <mergeCell ref="AS20:BC20"/>
+    <mergeCell ref="BD20:BG20"/>
+    <mergeCell ref="BH20:CI20"/>
+    <mergeCell ref="CJ20:CT20"/>
+    <mergeCell ref="CU20:DE20"/>
     <mergeCell ref="A22:BB22"/>
     <mergeCell ref="BE22:DE22"/>
-    <mergeCell ref="A24:BB24"/>
-    <mergeCell ref="BE24:DE24"/>
+    <mergeCell ref="A23:BB23"/>
+    <mergeCell ref="BE23:DE23"/>
     <mergeCell ref="A25:BB25"/>
     <mergeCell ref="BE25:DE25"/>
-    <mergeCell ref="A27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:AZ27"/>
-    <mergeCell ref="BA27:BB27"/>
-    <mergeCell ref="BE27:BS27"/>
-    <mergeCell ref="BT27:BU27"/>
-    <mergeCell ref="BV27:DC27"/>
-    <mergeCell ref="DD27:DE27"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="BO29:BU29"/>
+    <mergeCell ref="A26:BB26"/>
+    <mergeCell ref="BE26:DE26"/>
+    <mergeCell ref="A28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:AZ28"/>
+    <mergeCell ref="BA28:BB28"/>
+    <mergeCell ref="BE28:BS28"/>
+    <mergeCell ref="BT28:BU28"/>
+    <mergeCell ref="BV28:DC28"/>
+    <mergeCell ref="DD28:DE28"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="BO30:BU30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -15057,7 +15557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f280999a-26ac-456e-967a-f1a5b4604038}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2b98c4b8-856c-456a-a270-c189a53729c8}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
